--- a/producao.xlsx
+++ b/producao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48544763898\Desktop\Projeto-Integrador-2S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC6F5B8-E37C-4CD7-8900-DF30EFADB2DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A38152-6514-49C9-8070-AFFCEC15F737}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="1" xr2:uid="{B9C6169E-FE15-4B8C-AA0A-844D37CA0003}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="495">
   <si>
     <t>Região</t>
   </si>
@@ -1511,9 +1511,6 @@
   </si>
   <si>
     <t>2023/09</t>
-  </si>
-  <si>
-    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1899,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2066,7 +2063,7 @@
   <dimension ref="A1:D456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2080,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
